--- a/2015-2016/PRE_PRO/pasantes/datos_pasantes/2015/kleber/2015/julio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_29_junio_03_julio.xlsx
+++ b/2015-2016/PRE_PRO/pasantes/datos_pasantes/2015/kleber/2015/julio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_29_junio_03_julio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="77">
   <si>
     <t>UNIVERSIDAD TÉCNICA DE MACHALA</t>
   </si>
@@ -289,6 +289,13 @@
 Miercoles:
 Jueves:
 Viernes:</t>
+  </si>
+  <si>
+    <t>Lunes: llenar el registro de  informes  solicitudes que dejan las autoridades 
+Martes: sacar copias de documentos recibos por parte de administracion central
+Miercoles:  respaldar informacion de de los silabos de cada docente.
+Jueves:  Archivar y ordenar documentos  y oficios.
+Viernes: sacar copias de registro de profesores para reuniones DEL  CEPOS</t>
   </si>
 </sst>
 </file>
@@ -664,6 +671,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,6 +683,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,68 +707,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1306,7 +1313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1335,52 +1342,52 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1565,7 +1572,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,150 +1593,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="8"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
       <c r="M2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
       <c r="M3" s="11"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
       <c r="M4" s="11"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="10"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="11"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
@@ -1801,8 +1808,8 @@
       <c r="H10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="59" t="s">
-        <v>75</v>
+      <c r="I10" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
@@ -1837,50 +1844,50 @@
       <c r="L12" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
     </row>
     <row r="15" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.196527777777778" top="0.39374999999999999" bottom="0.51180555555555496" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1911,68 +1918,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="45" t="s">
@@ -2014,11 +2021,11 @@
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="29" t="s">
         <v>74</v>
       </c>
@@ -2067,7 +2074,7 @@
       <c r="E11" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="33" t="s">
         <v>75</v>
       </c>
       <c r="G11" s="27" t="s">
@@ -2096,41 +2103,46 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H16"/>
@@ -2139,11 +2151,6 @@
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47222222222222199" right="0.196527777777778" top="0.39374999999999999" bottom="0.118055555555556" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2176,74 +2183,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51" t="s">
@@ -2482,18 +2489,18 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
@@ -2511,6 +2518,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
@@ -2519,11 +2531,6 @@
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="7.8472222222222193E-2" right="0" top="0.39374999999999999" bottom="0.118055555555556" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2555,81 +2562,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="11"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="10"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="11"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="11"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -2804,17 +2811,17 @@
       <c r="I18" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="50" t="s">
@@ -2831,16 +2838,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.196527777777778" top="0.39374999999999999" bottom="0.51180555555555496" header="0.51180555555555496" footer="0.51180555555555496"/>
